--- a/data/snowballing/study_set_4.xlsx
+++ b/data/snowballing/study_set_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="870">
   <si>
     <t xml:space="preserve">record_id</t>
   </si>
@@ -1565,6 +1565,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://dx.doi.org/10.2139/ssrn.3001828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duplicate (study_set_12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr</t>
   </si>
   <si>
     <t xml:space="preserve">HQQYJGPV</t>
@@ -2753,13 +2759,13 @@
   </sheetPr>
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.1015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.03125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="14" style="0" width="11.18"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="14" style="0" width="11.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6711,10 +6717,16 @@
         <v>0</v>
       </c>
       <c r="W57" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X57" s="0" t="s">
+        <v>515</v>
       </c>
       <c r="Y57" s="0" t="s">
         <v>46</v>
+      </c>
+      <c r="Z57" s="0" t="s">
+        <v>516</v>
       </c>
       <c r="AF57" s="4" t="s">
         <v>305</v>
@@ -6725,13 +6737,13 @@
         <v>2968</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>2020</v>
@@ -6740,13 +6752,13 @@
         <v>115</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="N58" s="0" t="n">
         <v>1</v>
@@ -6761,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="S58" s="1" t="n">
         <v>45090</v>
@@ -6787,40 +6799,40 @@
         <v>8009</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>37</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="N59" s="0" t="n">
         <v>1</v>
@@ -6835,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="S59" s="1" t="n">
         <v>45090</v>
@@ -6861,19 +6873,19 @@
         <v>9183</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>290</v>
@@ -6885,13 +6897,13 @@
         <v>39</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="N60" s="0" t="n">
         <v>1</v>
@@ -6906,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="S60" s="1" t="n">
         <v>45090</v>
@@ -6932,13 +6944,13 @@
         <v>9295</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>2019</v>
@@ -6950,16 +6962,16 @@
         <v>39</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="N61" s="0" t="n">
         <v>1</v>
@@ -6974,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="S61" s="1" t="n">
         <v>45090</v>
@@ -7000,13 +7012,13 @@
         <v>653</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>2022</v>
@@ -7015,13 +7027,13 @@
         <v>39</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="N62" s="0" t="n">
         <v>1</v>
@@ -7036,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="R62" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="S62" s="1" t="n">
         <v>45090</v>
@@ -7062,28 +7074,28 @@
         <v>7154</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="I63" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="N63" s="0" t="n">
         <v>1</v>
@@ -7098,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="R63" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="S63" s="1" t="n">
         <v>45090</v>
@@ -7124,37 +7136,37 @@
         <v>1152</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1995</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I64" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="N64" s="0" t="n">
         <v>1</v>
@@ -7169,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="R64" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="S64" s="1" t="n">
         <v>45091</v>
@@ -7198,13 +7210,13 @@
         <v>6818</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>2016</v>
@@ -7213,13 +7225,13 @@
         <v>76</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="N65" s="0" t="n">
         <v>1</v>
@@ -7234,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="R65" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="S65" s="1" t="n">
         <v>45091</v>
@@ -7260,13 +7272,13 @@
         <v>7707</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1997</v>
@@ -7275,16 +7287,16 @@
         <v>39</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="N66" s="0" t="n">
         <v>0</v>
@@ -7322,37 +7334,37 @@
         <v>769</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>310</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="I67" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="N67" s="0" t="n">
         <v>1</v>
@@ -7367,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="R67" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="S67" s="1" t="n">
         <v>45091</v>
@@ -7393,19 +7405,19 @@
         <v>5279</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>1989</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>290</v>
@@ -7417,13 +7429,13 @@
         <v>39</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="N68" s="0" t="n">
         <v>1</v>
@@ -7438,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="S68" s="1" t="n">
         <v>45091</v>
@@ -7464,40 +7476,40 @@
         <v>7224</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>37</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="I69" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="N69" s="0" t="n">
         <v>1</v>
@@ -7512,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="S69" s="1" t="n">
         <v>45091</v>
@@ -7538,37 +7550,37 @@
         <v>1084</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>2004</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>96</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="I70" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="N70" s="0" t="n">
         <v>1</v>
@@ -7583,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="S70" s="1" t="n">
         <v>45091</v>
@@ -7609,31 +7621,31 @@
         <v>894</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="I71" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="N71" s="0" t="n">
         <v>1</v>
@@ -7648,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="R71" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="S71" s="1" t="n">
         <v>45091</v>
@@ -7671,13 +7683,13 @@
         <v>4368</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>2020</v>
@@ -7695,13 +7707,13 @@
         <v>39</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="N72" s="0" t="n">
         <v>1</v>
@@ -7716,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="R72" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="S72" s="1" t="n">
         <v>45091</v>
@@ -7728,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="V72" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="W72" s="0" t="n">
         <v>0</v>
@@ -7745,37 +7757,37 @@
         <v>658</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>96</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="I73" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="N73" s="0" t="n">
         <v>1</v>
@@ -7790,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="R73" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="S73" s="1" t="n">
         <v>45091</v>
@@ -7816,22 +7828,22 @@
         <v>8137</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>2003</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>37</v>
@@ -7840,16 +7852,16 @@
         <v>39</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="N74" s="0" t="n">
         <v>1</v>
@@ -7864,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="R74" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="S74" s="1" t="n">
         <v>45091</v>
@@ -7887,13 +7899,13 @@
         <v>7438</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>2018</v>
@@ -7902,13 +7914,13 @@
         <v>39</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="N75" s="0" t="n">
         <v>1</v>
@@ -7923,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="R75" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="S75" s="1" t="n">
         <v>45091</v>
@@ -7946,13 +7958,13 @@
         <v>6971</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>2008</v>
@@ -7961,10 +7973,10 @@
         <v>39</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="N76" s="0" t="n">
         <v>1</v>
@@ -7979,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="R76" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="S76" s="1" t="n">
         <v>45091</v>
@@ -7991,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="V76" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="W76" s="0" t="n">
         <v>0</v>
@@ -8008,31 +8020,31 @@
         <v>7698</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N77" s="0" t="n">
         <v>1</v>
@@ -8047,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="R77" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="S77" s="1" t="n">
         <v>45091</v>
@@ -8059,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="V77" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="W77" s="0" t="n">
         <v>0</v>
@@ -8076,13 +8088,13 @@
         <v>4507</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>2019</v>
@@ -8091,13 +8103,13 @@
         <v>39</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="N78" s="0" t="n">
         <v>1</v>
@@ -8112,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="R78" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="S78" s="1" t="n">
         <v>45091</v>
@@ -8138,13 +8150,13 @@
         <v>755</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>2021</v>
@@ -8153,22 +8165,22 @@
         <v>258</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="I79" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="N79" s="0" t="n">
         <v>1</v>
@@ -8183,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="R79" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="S79" s="1" t="n">
         <v>45091</v>
@@ -8206,13 +8218,13 @@
         <v>7222</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>2015</v>
@@ -8221,16 +8233,16 @@
         <v>39</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="N80" s="0" t="n">
         <v>1</v>
@@ -8245,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="R80" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="S80" s="1" t="n">
         <v>45091</v>
@@ -8271,13 +8283,13 @@
         <v>9445</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>2013</v>
@@ -8286,13 +8298,13 @@
         <v>76</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="N81" s="0" t="n">
         <v>1</v>
@@ -8307,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="R81" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="S81" s="1" t="n">
         <v>45091</v>
@@ -8333,19 +8345,19 @@
         <v>989</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>2002</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>290</v>
@@ -8357,13 +8369,13 @@
         <v>39</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="N82" s="0" t="n">
         <v>1</v>
@@ -8378,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="R82" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="S82" s="1" t="n">
         <v>45091</v>
@@ -8404,19 +8416,19 @@
         <v>10280</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>139</v>
@@ -8428,13 +8440,13 @@
         <v>39</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="N83" s="0" t="n">
         <v>0</v>
@@ -8458,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="V83" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="W83" s="0" t="n">
         <v>0</v>
@@ -8475,19 +8487,19 @@
         <v>6365</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>2012</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>96</v>
@@ -8496,13 +8508,13 @@
         <v>39</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="N84" s="0" t="n">
         <v>0</v>
@@ -8540,13 +8552,13 @@
         <v>8482</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>2012</v>
@@ -8555,13 +8567,13 @@
         <v>76</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="N85" s="0" t="n">
         <v>1</v>
@@ -8576,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="R85" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="S85" s="1" t="n">
         <v>45091</v>
@@ -8602,37 +8614,37 @@
         <v>609</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>208</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="I86" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="N86" s="0" t="n">
         <v>1</v>
@@ -8647,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="R86" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="S86" s="1" t="n">
         <v>45091</v>
@@ -8662,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="X86" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="Y86" s="0" t="s">
         <v>46</v>
@@ -8673,13 +8685,13 @@
         <v>7148</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>2020</v>
@@ -8688,10 +8700,10 @@
         <v>39</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="N87" s="0" t="n">
         <v>0</v>
@@ -8729,13 +8741,13 @@
         <v>7520</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>2013</v>
@@ -8744,10 +8756,10 @@
         <v>39</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="N88" s="0" t="n">
         <v>1</v>
@@ -8762,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="R88" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="S88" s="1" t="n">
         <v>45091</v>
@@ -8788,37 +8800,37 @@
         <v>603</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="I89" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="N89" s="0" t="n">
         <v>1</v>
@@ -8833,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="R89" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="S89" s="1" t="n">
         <v>45091</v>
@@ -8859,19 +8871,19 @@
         <v>10655</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>37</v>
@@ -8883,13 +8895,13 @@
         <v>39</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="N90" s="0" t="n">
         <v>1</v>
@@ -8904,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="R90" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="S90" s="1" t="n">
         <v>45091</v>
@@ -8930,13 +8942,13 @@
         <v>6311</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>2009</v>
@@ -8945,13 +8957,13 @@
         <v>39</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="N91" s="0" t="n">
         <v>1</v>
@@ -8966,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="R91" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="S91" s="1" t="n">
         <v>45091</v>
@@ -8992,19 +9004,19 @@
         <v>6827</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>139</v>
@@ -9016,16 +9028,16 @@
         <v>39</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="N92" s="0" t="n">
         <v>1</v>
@@ -9040,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="R92" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="S92" s="1" t="n">
         <v>45091</v>
@@ -9066,19 +9078,19 @@
         <v>442</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>1997</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>37</v>
@@ -9087,13 +9099,13 @@
         <v>39</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="N93" s="0" t="n">
         <v>1</v>
@@ -9108,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="R93" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="S93" s="1" t="n">
         <v>45091</v>
@@ -9134,19 +9146,19 @@
         <v>10044</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>37</v>
@@ -9158,16 +9170,16 @@
         <v>39</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="L94" s="0" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="N94" s="0" t="n">
         <v>1</v>
@@ -9182,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="R94" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="S94" s="1" t="n">
         <v>45091</v>
@@ -9208,40 +9220,40 @@
         <v>114</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I95" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="N95" s="0" t="n">
         <v>1</v>
@@ -9256,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="R95" s="0" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="S95" s="1" t="n">
         <v>45091</v>
@@ -9285,37 +9297,37 @@
         <v>8212</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="I96" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="N96" s="0" t="n">
         <v>1</v>
@@ -9330,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="R96" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="S96" s="1" t="n">
         <v>45091</v>
@@ -9356,40 +9368,40 @@
         <v>2476</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>2010</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="I97" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="L97" s="0" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="N97" s="0" t="n">
         <v>1</v>
@@ -9404,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="R97" s="0" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="S97" s="1" t="n">
         <v>45091</v>
@@ -9430,22 +9442,22 @@
         <v>2425</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>106</v>
@@ -9454,16 +9466,16 @@
         <v>39</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="N98" s="0" t="n">
         <v>1</v>
@@ -9478,7 +9490,7 @@
         <v>0</v>
       </c>
       <c r="R98" s="0" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="S98" s="1" t="n">
         <v>45091</v>
@@ -9504,13 +9516,13 @@
         <v>7780</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>2023</v>
@@ -9519,10 +9531,10 @@
         <v>39</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="N99" s="0" t="n">
         <v>1</v>
@@ -9537,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="R99" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="S99" s="1" t="n">
         <v>45091</v>
@@ -9566,40 +9578,40 @@
         <v>8600</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>290</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I100" s="0" t="s">
         <v>39</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="N100" s="0" t="n">
         <v>0</v>
@@ -9623,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="V100" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="W100" s="0" t="n">
         <v>0</v>
@@ -9640,13 +9652,13 @@
         <v>8830</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>2010</v>
@@ -9664,16 +9676,16 @@
         <v>39</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="N101" s="0" t="n">
         <v>1</v>
@@ -9688,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="R101" s="0" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="S101" s="1" t="n">
         <v>45091</v>
